--- a/template_report/jobdesk minggu ini (Rizal).xlsx
+++ b/template_report/jobdesk minggu ini (Rizal).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\e-satker\template_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Project</t>
   </si>
@@ -178,10 +183,6 @@
   </si>
   <si>
     <t>- sorting Nama barang</t>
-  </si>
-  <si>
-    <t>- header "accordeon" agar data detail bisa lebih terlihat, 
-- form add detail dipisah untuk nama barang, merek, dan spek</t>
   </si>
   <si>
     <r>
@@ -215,6 +216,12 @@
   <si>
     <t>: ESATKER</t>
   </si>
+  <si>
+    <t xml:space="preserve">- header "accordeon" agar data detail bisa lebih terlihat, </t>
+  </si>
+  <si>
+    <t>- form add detail dipisah untuk nama barang, merek, dan spek</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,9 +342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,6 +380,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,27 +402,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -426,6 +454,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,82 +749,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="58" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="26">
+      <c r="F3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="20">
         <v>42151</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="20">
         <v>42152</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="20">
         <v>42153</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="20">
         <v>42154</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="20">
         <v>42155</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="20">
         <v>42156</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="20">
         <v>42157</v>
       </c>
     </row>
@@ -801,19 +832,19 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -825,19 +856,19 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -845,20 +876,18 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="27"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -867,18 +896,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -887,21 +916,17 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="F9" s="28"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -911,21 +936,21 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="27"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="28"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -933,65 +958,65 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="27"/>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="27"/>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1001,21 +1026,21 @@
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="27"/>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1023,185 +1048,189 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="21"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>49</v>
+      <c r="E16" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="27"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>34</v>
+      <c r="E17" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>30</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="3"/>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1209,19 +1238,19 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="27"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="21"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1229,104 +1258,124 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="8" t="s">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="27"/>
+      <c r="E24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="10" t="s">
+    <row r="25" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>39</v>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>40</v>
+      <c r="B27" s="7"/>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>41</v>
+      <c r="B28" s="7"/>
+      <c r="C28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1338,15 +1387,15 @@
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Opik"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D1048576 D1:D3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D3 D5:D1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Rizal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Opik"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/template_report/jobdesk minggu ini (Rizal).xlsx
+++ b/template_report/jobdesk minggu ini (Rizal).xlsx
@@ -390,6 +390,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -408,26 +409,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -751,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="5" t="s">
         <v>55</v>
       </c>
@@ -778,34 +764,34 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="20">
         <v>42151</v>
       </c>
@@ -868,7 +854,7 @@
       <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -886,7 +872,7 @@
       <c r="E7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -926,7 +912,7 @@
       <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -950,7 +936,7 @@
       <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -974,7 +960,7 @@
       <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1161,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1185,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1209,7 +1195,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1250,7 +1236,7 @@
       <c r="E23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1309,7 +1295,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1387,15 +1373,15 @@
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Opik"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3 D5:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Rizal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Opik"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/template_report/jobdesk minggu ini (Rizal).xlsx
+++ b/template_report/jobdesk minggu ini (Rizal).xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1354,7 +1354,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="21"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
